--- a/docs/StructureDefinition-VAVitals.xlsx
+++ b/docs/StructureDefinition-VAVitals.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="540">
   <si>
     <t>Path</t>
   </si>
@@ -335,244 +335,241 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2870,7 +2867,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2889,15 +2886,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2934,14 +2933,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2971,7 +2972,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2986,7 +2987,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3005,16 +3006,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3064,7 +3065,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3102,7 +3103,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3125,17 +3126,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3184,7 +3185,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3202,19 +3203,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3222,11 +3223,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3245,17 +3246,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3304,7 +3305,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3322,16 +3323,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3342,7 +3343,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3368,16 +3369,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
@@ -3402,61 +3403,61 @@
         <v>46</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3464,7 +3465,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3487,19 +3488,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3524,14 +3525,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3575,10 +3576,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3586,11 +3587,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3609,17 +3610,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3644,69 +3645,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3729,13 +3730,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3786,7 +3787,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3813,7 +3814,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3824,11 +3825,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3847,16 +3848,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3894,19 +3895,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3933,7 +3934,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3944,7 +3945,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3967,19 +3968,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -4028,7 +4029,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -4052,10 +4053,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4089,13 +4090,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4146,7 +4147,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4173,7 +4174,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4184,11 +4185,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4207,16 +4208,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4254,19 +4255,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4293,7 +4294,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4330,92 +4331,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4426,7 +4427,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4449,16 +4450,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4508,34 +4509,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4546,14 +4547,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>44</v>
@@ -4574,14 +4575,14 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
@@ -4630,34 +4631,34 @@
         <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4668,7 +4669,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4691,17 +4692,17 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4750,34 +4751,34 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4788,7 +4789,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4811,19 +4812,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4872,34 +4873,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4910,7 +4911,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4933,19 +4934,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4994,34 +4995,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -5032,7 +5033,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5055,19 +5056,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5116,7 +5117,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5134,19 +5135,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5154,11 +5155,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5177,19 +5178,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5238,7 +5239,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5256,19 +5257,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5276,11 +5277,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5299,19 +5300,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5348,47 +5349,47 @@
         <v>46</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5396,16 +5397,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="D30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>44</v>
@@ -5423,19 +5424,19 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>46</v>
@@ -5484,7 +5485,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5499,22 +5500,22 @@
         <v>46</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5522,7 +5523,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5545,16 +5546,16 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5604,7 +5605,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5628,13 +5629,13 @@
         <v>46</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5642,7 +5643,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5665,17 +5666,17 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5724,7 +5725,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5742,19 +5743,19 @@
         <v>46</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>46</v>
@@ -5762,7 +5763,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5785,19 +5786,19 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5834,17 +5835,17 @@
         <v>46</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5853,39 +5854,39 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>46</v>
@@ -5907,19 +5908,19 @@
         <v>58</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -5968,7 +5969,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5977,36 +5978,36 @@
         <v>57</v>
       </c>
       <c r="AH34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AI34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6029,13 +6030,13 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6086,7 +6087,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6113,7 +6114,7 @@
         <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -6124,11 +6125,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6147,16 +6148,16 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6194,19 +6195,19 @@
         <v>46</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6233,7 +6234,7 @@
         <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -6244,14 +6245,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>44</v>
@@ -6269,19 +6270,19 @@
         <v>58</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6330,34 +6331,34 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>46</v>
@@ -6368,7 +6369,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6394,94 +6395,94 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P38" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P38" t="s" s="2">
+      <c r="Q38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Q38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6492,14 +6493,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s" s="2">
         <v>44</v>
@@ -6517,17 +6518,17 @@
         <v>58</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6576,34 +6577,34 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6614,7 +6615,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6640,14 +6641,14 @@
         <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
@@ -6696,34 +6697,34 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH40" t="s" s="2">
+      <c r="AI40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6734,7 +6735,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6760,16 +6761,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6818,34 +6819,34 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6856,7 +6857,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6879,19 +6880,19 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6919,38 +6920,38 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AI42" t="s" s="2">
         <v>46</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>46</v>
@@ -6967,7 +6968,7 @@
         <v>100</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6978,11 +6979,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7001,17 +7002,17 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>46</v>
@@ -7039,66 +7040,66 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7121,17 +7122,17 @@
         <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
@@ -7180,7 +7181,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7198,16 +7199,16 @@
         <v>46</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7218,7 +7219,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7241,16 +7242,16 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7276,69 +7277,69 @@
         <v>46</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7361,19 +7362,19 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7398,58 +7399,58 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7460,7 +7461,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7483,16 +7484,16 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7542,7 +7543,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7563,24 +7564,24 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7603,16 +7604,16 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7662,7 +7663,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7683,24 +7684,24 @@
         <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7723,19 +7724,19 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
@@ -7784,7 +7785,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7796,22 +7797,22 @@
         <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7822,7 +7823,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7845,13 +7846,13 @@
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7902,7 +7903,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7929,7 +7930,7 @@
         <v>46</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7940,11 +7941,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7963,16 +7964,16 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8022,7 +8023,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -8049,7 +8050,7 @@
         <v>46</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
@@ -8060,11 +8061,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8083,16 +8084,16 @@
         <v>58</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8142,7 +8143,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8180,7 +8181,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8203,13 +8204,13 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8260,7 +8261,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8269,25 +8270,25 @@
         <v>57</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8298,7 +8299,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8321,13 +8322,13 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8378,7 +8379,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8387,25 +8388,25 @@
         <v>57</v>
       </c>
       <c r="AH54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AI54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="AN54" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
@@ -8416,7 +8417,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8439,19 +8440,19 @@
         <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8479,55 +8480,55 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AN55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8538,7 +8539,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8561,19 +8562,19 @@
         <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>46</v>
@@ -8598,14 +8599,14 @@
         <v>46</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>46</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8643,13 +8644,13 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AN56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
@@ -8660,7 +8661,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8683,17 +8684,17 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8742,7 +8743,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8769,7 +8770,7 @@
         <v>46</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8780,7 +8781,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8803,13 +8804,13 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8860,7 +8861,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8884,10 +8885,10 @@
         <v>46</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8898,7 +8899,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8921,19 +8922,19 @@
         <v>58</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>46</v>
@@ -8982,7 +8983,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8994,22 +8995,22 @@
         <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -9020,7 +9021,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9043,13 +9044,13 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9100,7 +9101,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -9127,7 +9128,7 @@
         <v>46</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -9138,11 +9139,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9161,16 +9162,16 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9220,7 +9221,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9247,7 +9248,7 @@
         <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9258,11 +9259,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9281,16 +9282,16 @@
         <v>58</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9340,7 +9341,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9378,7 +9379,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9404,16 +9405,16 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>46</v>
@@ -9438,14 +9439,14 @@
         <v>46</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>46</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9489,7 +9490,7 @@
         <v>100</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9500,7 +9501,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9523,13 +9524,13 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9580,7 +9581,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>57</v>
@@ -9607,7 +9608,7 @@
         <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9618,7 +9619,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9641,19 +9642,19 @@
         <v>58</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9702,7 +9703,7 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
@@ -9714,7 +9715,7 @@
         <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>46</v>
@@ -9726,10 +9727,10 @@
         <v>46</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
@@ -9740,7 +9741,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9763,13 +9764,13 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9820,7 +9821,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9847,7 +9848,7 @@
         <v>46</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9858,11 +9859,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9881,16 +9882,16 @@
         <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9940,7 +9941,7 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9967,7 +9968,7 @@
         <v>46</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9978,11 +9979,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10001,16 +10002,16 @@
         <v>58</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10060,7 +10061,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -10098,7 +10099,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10121,17 +10122,17 @@
         <v>58</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>46</v>
@@ -10156,14 +10157,14 @@
         <v>46</v>
       </c>
       <c r="W69" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>46</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>57</v>
@@ -10201,16 +10202,16 @@
         <v>46</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>46</v>
@@ -10218,7 +10219,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10241,13 +10242,13 @@
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10298,7 +10299,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10325,7 +10326,7 @@
         <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10336,11 +10337,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10359,16 +10360,16 @@
         <v>46</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10406,19 +10407,19 @@
         <v>46</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB71" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10445,7 +10446,7 @@
         <v>46</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>46</v>
@@ -10456,7 +10457,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10479,19 +10480,19 @@
         <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10540,7 +10541,7 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10564,10 +10565,10 @@
         <v>46</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>46</v>
@@ -10578,7 +10579,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10601,13 +10602,13 @@
         <v>46</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10658,7 +10659,7 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
@@ -10685,7 +10686,7 @@
         <v>46</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>46</v>
@@ -10696,11 +10697,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10719,16 +10720,16 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10766,19 +10767,19 @@
         <v>46</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB74" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10805,7 +10806,7 @@
         <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10816,7 +10817,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10842,16 +10843,16 @@
         <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>46</v>
@@ -10900,34 +10901,34 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10938,7 +10939,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10961,16 +10962,16 @@
         <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11020,34 +11021,34 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -11058,14 +11059,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E77" t="s" s="2">
         <v>44</v>
@@ -11086,79 +11087,79 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="R77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>46</v>
       </c>
@@ -11166,10 +11167,10 @@
         <v>46</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
@@ -11180,7 +11181,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11203,17 +11204,17 @@
         <v>58</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
@@ -11262,34 +11263,34 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11300,7 +11301,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11323,19 +11324,19 @@
         <v>58</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>46</v>
@@ -11384,34 +11385,34 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11422,7 +11423,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11445,19 +11446,19 @@
         <v>58</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>46</v>
@@ -11506,34 +11507,34 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
@@ -11544,7 +11545,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11567,19 +11568,19 @@
         <v>58</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11616,17 +11617,17 @@
         <v>46</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11647,33 +11648,33 @@
         <v>46</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D82" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="E82" t="s" s="2">
         <v>44</v>
@@ -11691,19 +11692,19 @@
         <v>58</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11752,7 +11753,7 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11767,30 +11768,30 @@
         <v>46</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11813,19 +11814,19 @@
         <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11853,37 +11854,37 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y83" t="s" s="2">
+      <c r="Z83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>46</v>
@@ -11901,7 +11902,7 @@
         <v>100</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
@@ -11912,11 +11913,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11935,19 +11936,19 @@
         <v>46</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
@@ -11975,66 +11976,66 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12060,16 +12061,16 @@
         <v>46</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>46</v>
@@ -12118,7 +12119,7 @@
         <v>46</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>44</v>
@@ -12142,10 +12143,10 @@
         <v>46</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>46</v>
